--- a/FuseLinks/ElosFranco_Consumidor.xlsx
+++ b/FuseLinks/ElosFranco_Consumidor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M155"/>
+  <dimension ref="A1:O155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,50 +451,60 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Fusivel Isolador</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Fusivel Consumidor</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Tempo Abertura Fase A Isolador</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Corrente Fase A Isolador</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Tempo Abertura Fase B Isolador</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Corrente Fase B Isolador</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Tempo Abertura Fase C Isolador</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Corrente Fase C Isolador</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Tempo Abertura Fase A Consumidor</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Corrente Fase A Consumidor</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Tempo Abertura Fase B Consumidor</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Corrente Fase B Consumidor</t>
         </is>
@@ -518,11 +528,13 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -554,6 +566,14 @@
         </is>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -575,11 +595,13 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -611,6 +633,14 @@
         </is>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -632,11 +662,13 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -668,6 +700,14 @@
         </is>
       </c>
       <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -689,11 +729,13 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -725,6 +767,14 @@
         </is>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -746,11 +796,13 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -782,6 +834,14 @@
         </is>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -803,11 +863,13 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -839,6 +901,14 @@
         </is>
       </c>
       <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -860,11 +930,13 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -896,6 +968,14 @@
         </is>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -917,11 +997,13 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -953,6 +1035,14 @@
         </is>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -974,11 +1064,13 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -1010,6 +1102,14 @@
         </is>
       </c>
       <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1031,11 +1131,13 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -1067,6 +1169,14 @@
         </is>
       </c>
       <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1088,11 +1198,13 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1124,6 +1236,14 @@
         </is>
       </c>
       <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1145,11 +1265,13 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1181,6 +1303,14 @@
         </is>
       </c>
       <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1202,11 +1332,13 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1238,6 +1370,14 @@
         </is>
       </c>
       <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1259,11 +1399,13 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1295,6 +1437,14 @@
         </is>
       </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1316,11 +1466,13 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1352,6 +1504,14 @@
         </is>
       </c>
       <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1373,11 +1533,13 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1409,6 +1571,14 @@
         </is>
       </c>
       <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1430,11 +1600,13 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1466,6 +1638,14 @@
         </is>
       </c>
       <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1487,11 +1667,13 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1523,6 +1705,14 @@
         </is>
       </c>
       <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1544,11 +1734,13 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1580,6 +1772,14 @@
         </is>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1601,11 +1801,13 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1637,6 +1839,14 @@
         </is>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1658,11 +1868,13 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1694,6 +1906,14 @@
         </is>
       </c>
       <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1715,11 +1935,13 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
+          <t>1H</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1751,6 +1973,14 @@
         </is>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1772,11 +2002,13 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1808,6 +2040,14 @@
         </is>
       </c>
       <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1829,11 +2069,13 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1865,6 +2107,14 @@
         </is>
       </c>
       <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1886,11 +2136,13 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1922,6 +2174,14 @@
         </is>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1943,11 +2203,13 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1979,6 +2241,14 @@
         </is>
       </c>
       <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2000,11 +2270,13 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -2036,6 +2308,14 @@
         </is>
       </c>
       <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2057,11 +2337,13 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -2093,6 +2375,14 @@
         </is>
       </c>
       <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2114,11 +2404,13 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -2150,6 +2442,14 @@
         </is>
       </c>
       <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2171,11 +2471,13 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -2207,6 +2509,14 @@
         </is>
       </c>
       <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,11 +2538,13 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -2264,6 +2576,14 @@
         </is>
       </c>
       <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2285,11 +2605,13 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -2321,6 +2643,14 @@
         </is>
       </c>
       <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2342,11 +2672,13 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1H</t>
+        </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2378,6 +2710,14 @@
         </is>
       </c>
       <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2397,11 +2737,15 @@
           <t>BT Consumidor</t>
         </is>
       </c>
-      <c r="D35" t="n">
-        <v>3.64635</v>
-      </c>
-      <c r="E35" t="n">
-        <v>16.0973</v>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F35" t="n">
         <v>3.64635</v>
@@ -2416,17 +2760,23 @@
         <v>16.0973</v>
       </c>
       <c r="J35" t="n">
+        <v>3.64635</v>
+      </c>
+      <c r="K35" t="n">
+        <v>16.0973</v>
+      </c>
+      <c r="L35" t="n">
         <v>3.654</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>16.0816</v>
       </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O35" t="n">
         <v>16.0592</v>
       </c>
     </row>
@@ -2446,11 +2796,15 @@
           <t>BT Consumidor</t>
         </is>
       </c>
-      <c r="D36" t="n">
-        <v>3.64635</v>
-      </c>
-      <c r="E36" t="n">
-        <v>16.0973</v>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F36" t="n">
         <v>3.64635</v>
@@ -2465,17 +2819,23 @@
         <v>16.0973</v>
       </c>
       <c r="J36" t="n">
+        <v>3.64635</v>
+      </c>
+      <c r="K36" t="n">
+        <v>16.0973</v>
+      </c>
+      <c r="L36" t="n">
         <v>3.654</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>16.0816</v>
       </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O36" t="n">
         <v>16.0592</v>
       </c>
     </row>
@@ -2497,11 +2857,13 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E37" t="n">
-        <v>14.1598</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2519,18 +2881,26 @@
       <c r="I37" t="n">
         <v>14.1598</v>
       </c>
-      <c r="J37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>14.1598</v>
+      </c>
+      <c r="L37" t="n">
         <v>3.65392</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>16.0818</v>
       </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2552,11 +2922,13 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E38" t="n">
-        <v>12.5651</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2574,18 +2946,26 @@
       <c r="I38" t="n">
         <v>12.5651</v>
       </c>
-      <c r="J38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>12.5651</v>
+      </c>
+      <c r="L38" t="n">
         <v>3.65388</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>16.0819</v>
       </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2607,11 +2987,13 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -2643,6 +3025,14 @@
         </is>
       </c>
       <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2664,11 +3054,13 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2700,6 +3092,14 @@
         </is>
       </c>
       <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2721,11 +3121,13 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E41" t="n">
-        <v>14.9477</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2749,12 +3151,20 @@
         </is>
       </c>
       <c r="K41" t="n">
+        <v>14.9477</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>11.4906</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>3.66508</v>
       </c>
-      <c r="M41" t="n">
+      <c r="O41" t="n">
         <v>16.059</v>
       </c>
     </row>
@@ -2776,11 +3186,13 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E42" t="n">
-        <v>15.3512</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2804,12 +3216,20 @@
         </is>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
+        <v>15.3512</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
         <v>3.66512</v>
       </c>
-      <c r="M42" t="n">
+      <c r="O42" t="n">
         <v>16.0589</v>
       </c>
     </row>
@@ -2831,11 +3251,13 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2867,6 +3289,14 @@
         </is>
       </c>
       <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2888,11 +3318,13 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E44" t="n">
-        <v>13.0253</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2916,14 +3348,22 @@
         </is>
       </c>
       <c r="K44" t="n">
+        <v>13.0253</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>12.7287</v>
       </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2945,11 +3385,13 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2981,6 +3423,14 @@
         </is>
       </c>
       <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O45" t="n">
         <v>12.6651</v>
       </c>
     </row>
@@ -3000,11 +3450,15 @@
           <t>BT Consumidor</t>
         </is>
       </c>
-      <c r="D46" t="n">
-        <v>2.10867</v>
-      </c>
-      <c r="E46" t="n">
-        <v>20.8661</v>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F46" t="n">
         <v>2.10867</v>
@@ -3019,15 +3473,21 @@
         <v>20.8661</v>
       </c>
       <c r="J46" t="n">
+        <v>2.10867</v>
+      </c>
+      <c r="K46" t="n">
+        <v>20.8661</v>
+      </c>
+      <c r="L46" t="n">
         <v>2.11022</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>20.8588</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>2.10917</v>
       </c>
-      <c r="M46" t="n">
+      <c r="O46" t="n">
         <v>20.8638</v>
       </c>
     </row>
@@ -3047,11 +3507,15 @@
           <t>BT Consumidor</t>
         </is>
       </c>
-      <c r="D47" t="n">
-        <v>2.10867</v>
-      </c>
-      <c r="E47" t="n">
-        <v>20.8661</v>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F47" t="n">
         <v>2.10867</v>
@@ -3066,15 +3530,21 @@
         <v>20.8661</v>
       </c>
       <c r="J47" t="n">
+        <v>2.10867</v>
+      </c>
+      <c r="K47" t="n">
+        <v>20.8661</v>
+      </c>
+      <c r="L47" t="n">
         <v>2.11022</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>20.8588</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>2.10917</v>
       </c>
-      <c r="M47" t="n">
+      <c r="O47" t="n">
         <v>20.8638</v>
       </c>
     </row>
@@ -3096,11 +3566,13 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E48" t="n">
-        <v>18.5686</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -3118,18 +3590,26 @@
       <c r="I48" t="n">
         <v>18.5686</v>
       </c>
-      <c r="J48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>18.5686</v>
+      </c>
+      <c r="L48" t="n">
         <v>2.11016</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>20.8591</v>
       </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O48" t="n">
         <v>14.0481</v>
       </c>
     </row>
@@ -3151,11 +3631,13 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E49" t="n">
-        <v>16.1274</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -3173,18 +3655,26 @@
       <c r="I49" t="n">
         <v>16.1274</v>
       </c>
-      <c r="J49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>16.1274</v>
+      </c>
+      <c r="L49" t="n">
         <v>2.11013</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>20.8592</v>
       </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3206,11 +3696,13 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E50" t="n">
-        <v>11.9627</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -3228,18 +3720,26 @@
       <c r="I50" t="n">
         <v>11.9627</v>
       </c>
-      <c r="J50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>11.9627</v>
+      </c>
+      <c r="L50" t="n">
         <v>5.44677</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>13.4027</v>
       </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O50" t="n">
         <v>15.2207</v>
       </c>
     </row>
@@ -3261,11 +3761,13 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E51" t="n">
-        <v>0</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -3297,6 +3799,14 @@
         </is>
       </c>
       <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O51" t="n">
         <v>14.0386</v>
       </c>
     </row>
@@ -3318,11 +3828,13 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E52" t="n">
-        <v>19.4843</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -3346,12 +3858,20 @@
         </is>
       </c>
       <c r="K52" t="n">
+        <v>19.4843</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>15.2399</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>2.10924</v>
       </c>
-      <c r="M52" t="n">
+      <c r="O52" t="n">
         <v>20.8635</v>
       </c>
     </row>
@@ -3373,11 +3893,13 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E53" t="n">
-        <v>20.0863</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -3401,12 +3923,20 @@
         </is>
       </c>
       <c r="K53" t="n">
+        <v>20.0863</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>14.1028</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>2.10927</v>
       </c>
-      <c r="M53" t="n">
+      <c r="O53" t="n">
         <v>20.8633</v>
       </c>
     </row>
@@ -3428,11 +3958,13 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E54" t="n">
-        <v>0</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -3456,14 +3988,22 @@
         </is>
       </c>
       <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>13.1173</v>
       </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3483,11 +4023,15 @@
           <t>BT Consumidor</t>
         </is>
       </c>
-      <c r="D55" t="n">
-        <v>3.11927</v>
-      </c>
-      <c r="E55" t="n">
-        <v>17.3181</v>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F55" t="n">
         <v>3.11927</v>
@@ -3501,20 +4045,26 @@
       <c r="I55" t="n">
         <v>17.3181</v>
       </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J55" t="n">
+        <v>3.11927</v>
       </c>
       <c r="K55" t="n">
+        <v>17.3181</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>17.0088</v>
       </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O55" t="n">
         <v>13.0933</v>
       </c>
     </row>
@@ -3536,11 +4086,13 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E56" t="n">
-        <v>0</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -3572,6 +4124,14 @@
         </is>
       </c>
       <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O56" t="n">
         <v>16.9592</v>
       </c>
     </row>
@@ -3591,11 +4151,15 @@
           <t>BT Consumidor</t>
         </is>
       </c>
-      <c r="D57" t="n">
-        <v>1.92846</v>
-      </c>
-      <c r="E57" t="n">
-        <v>21.7814</v>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F57" t="n">
         <v>1.92846</v>
@@ -3610,15 +4174,21 @@
         <v>21.7814</v>
       </c>
       <c r="J57" t="n">
+        <v>1.92846</v>
+      </c>
+      <c r="K57" t="n">
+        <v>21.7814</v>
+      </c>
+      <c r="L57" t="n">
         <v>1.92997</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>21.7733</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>1.92897</v>
       </c>
-      <c r="M57" t="n">
+      <c r="O57" t="n">
         <v>21.7787</v>
       </c>
     </row>
@@ -3638,11 +4208,15 @@
           <t>BT Consumidor</t>
         </is>
       </c>
-      <c r="D58" t="n">
-        <v>1.92846</v>
-      </c>
-      <c r="E58" t="n">
-        <v>21.7814</v>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F58" t="n">
         <v>1.92846</v>
@@ -3657,15 +4231,21 @@
         <v>21.7814</v>
       </c>
       <c r="J58" t="n">
+        <v>1.92846</v>
+      </c>
+      <c r="K58" t="n">
+        <v>21.7814</v>
+      </c>
+      <c r="L58" t="n">
         <v>1.92997</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>21.7733</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>1.92897</v>
       </c>
-      <c r="M58" t="n">
+      <c r="O58" t="n">
         <v>21.7787</v>
       </c>
     </row>
@@ -3687,11 +4267,13 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E59" t="n">
-        <v>19.364</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -3709,18 +4291,26 @@
       <c r="I59" t="n">
         <v>19.364</v>
       </c>
-      <c r="J59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>19.364</v>
+      </c>
+      <c r="L59" t="n">
         <v>1.92991</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>21.7736</v>
       </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O59" t="n">
         <v>14.5676</v>
       </c>
     </row>
@@ -3742,11 +4332,13 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E60" t="n">
-        <v>16.9317</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -3764,18 +4356,26 @@
       <c r="I60" t="n">
         <v>16.9317</v>
       </c>
-      <c r="J60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>16.9317</v>
+      </c>
+      <c r="L60" t="n">
         <v>1.92987</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>21.7738</v>
       </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3797,11 +4397,13 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E61" t="n">
-        <v>11.8612</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -3819,18 +4421,26 @@
       <c r="I61" t="n">
         <v>11.8612</v>
       </c>
-      <c r="J61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>11.8612</v>
+      </c>
+      <c r="L61" t="n">
         <v>4.55196</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>14.5334</v>
       </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O61" t="n">
         <v>15.7283</v>
       </c>
     </row>
@@ -3852,11 +4462,13 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E62" t="n">
-        <v>0</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
@@ -3888,6 +4500,14 @@
         </is>
       </c>
       <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O62" t="n">
         <v>14.5054</v>
       </c>
     </row>
@@ -3909,11 +4529,13 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E63" t="n">
-        <v>20.2849</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -3937,12 +4559,20 @@
         </is>
       </c>
       <c r="K63" t="n">
+        <v>20.2849</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>15.7771</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>1.92903</v>
       </c>
-      <c r="M63" t="n">
+      <c r="O63" t="n">
         <v>21.7784</v>
       </c>
     </row>
@@ -3964,11 +4594,13 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E64" t="n">
-        <v>20.9064</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -3992,12 +4624,20 @@
         </is>
       </c>
       <c r="K64" t="n">
+        <v>20.9064</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>14.5727</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>1.92906</v>
       </c>
-      <c r="M64" t="n">
+      <c r="O64" t="n">
         <v>21.7782</v>
       </c>
     </row>
@@ -4019,11 +4659,13 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E65" t="n">
-        <v>0</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -4047,14 +4689,22 @@
         </is>
       </c>
       <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>13.6564</v>
       </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4074,11 +4724,15 @@
           <t>BT Consumidor</t>
         </is>
       </c>
-      <c r="D66" t="n">
-        <v>2.89365</v>
-      </c>
-      <c r="E66" t="n">
-        <v>17.9429</v>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F66" t="n">
         <v>2.89365</v>
@@ -4092,20 +4746,26 @@
       <c r="I66" t="n">
         <v>17.9429</v>
       </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J66" t="n">
+        <v>2.89365</v>
       </c>
       <c r="K66" t="n">
+        <v>17.9429</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>17.5866</v>
       </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O66" t="n">
         <v>13.6179</v>
       </c>
     </row>
@@ -4127,11 +4787,13 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E67" t="n">
-        <v>0</v>
+          <t>2H</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>2H</t>
+        </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -4163,6 +4825,14 @@
         </is>
       </c>
       <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O67" t="n">
         <v>17.5083</v>
       </c>
     </row>
@@ -4184,11 +4854,13 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E68" t="n">
-        <v>31.3019</v>
+          <t>3H</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>3H</t>
+        </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
@@ -4212,14 +4884,22 @@
         </is>
       </c>
       <c r="K68" t="n">
+        <v>31.3019</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>31.2829</v>
       </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O68" t="n">
         <v>31.2765</v>
       </c>
     </row>
@@ -4241,11 +4921,13 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E69" t="n">
-        <v>31.3019</v>
+          <t>3H</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>3H</t>
+        </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -4269,14 +4951,22 @@
         </is>
       </c>
       <c r="K69" t="n">
+        <v>31.3019</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>31.2829</v>
       </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O69" t="n">
         <v>31.2765</v>
       </c>
     </row>
@@ -4298,11 +4988,13 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E70" t="n">
-        <v>28.1535</v>
+          <t>3H</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>3H</t>
+        </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -4326,14 +5018,22 @@
         </is>
       </c>
       <c r="K70" t="n">
+        <v>28.1535</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>31.2836</v>
       </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O70" t="n">
         <v>21.8904</v>
       </c>
     </row>
@@ -4355,11 +5055,13 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E71" t="n">
-        <v>24.3156</v>
+          <t>3H</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>3H</t>
+        </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -4383,14 +5085,22 @@
         </is>
       </c>
       <c r="K71" t="n">
+        <v>24.3156</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>31.2841</v>
       </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O71" t="n">
         <v>11.5597</v>
       </c>
     </row>
@@ -4412,11 +5122,13 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E72" t="n">
-        <v>18.714</v>
+          <t>3H</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>3H</t>
+        </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -4440,14 +5152,22 @@
         </is>
       </c>
       <c r="K72" t="n">
+        <v>18.714</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>21.8841</v>
       </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O72" t="n">
         <v>23.1609</v>
       </c>
     </row>
@@ -4469,11 +5189,13 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E73" t="n">
-        <v>0</v>
+          <t>3H</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>3H</t>
+        </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
@@ -4505,6 +5227,14 @@
         </is>
       </c>
       <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O73" t="n">
         <v>21.1885</v>
       </c>
     </row>
@@ -4526,11 +5256,13 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E74" t="n">
-        <v>29.155</v>
+          <t>3H</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>3H</t>
+        </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -4554,14 +5286,22 @@
         </is>
       </c>
       <c r="K74" t="n">
+        <v>29.155</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>23.1603</v>
       </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O74" t="n">
         <v>31.2757</v>
       </c>
     </row>
@@ -4583,11 +5323,13 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E75" t="n">
-        <v>30.1811</v>
+          <t>3H</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>3H</t>
+        </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -4611,14 +5353,22 @@
         </is>
       </c>
       <c r="K75" t="n">
+        <v>30.1811</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>21.2812</v>
       </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O75" t="n">
         <v>31.2753</v>
       </c>
     </row>
@@ -4640,11 +5390,13 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E76" t="n">
-        <v>0</v>
+          <t>3H</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>3H</t>
+        </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
@@ -4668,14 +5420,22 @@
         </is>
       </c>
       <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>20.1082</v>
       </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4697,11 +5457,13 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E77" t="n">
-        <v>26.4042</v>
+          <t>3H</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>3H</t>
+        </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
@@ -4725,14 +5487,22 @@
         </is>
       </c>
       <c r="K77" t="n">
+        <v>26.4042</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>25.9454</v>
       </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O77" t="n">
         <v>20.1205</v>
       </c>
     </row>
@@ -4754,11 +5524,13 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E78" t="n">
-        <v>18.8552</v>
+          <t>3H</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>3H</t>
+        </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -4782,7 +5554,7 @@
         </is>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
+        <v>18.8552</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -4790,6 +5562,14 @@
         </is>
       </c>
       <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O78" t="n">
         <v>25.9514</v>
       </c>
     </row>
@@ -4809,11 +5589,15 @@
           <t>BT Consumidor</t>
         </is>
       </c>
-      <c r="D79" t="n">
-        <v>0.578628</v>
-      </c>
-      <c r="E79" t="n">
-        <v>38.3024</v>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
       </c>
       <c r="F79" t="n">
         <v>0.578628</v>
@@ -4828,15 +5612,21 @@
         <v>38.3024</v>
       </c>
       <c r="J79" t="n">
+        <v>0.578628</v>
+      </c>
+      <c r="K79" t="n">
+        <v>38.3024</v>
+      </c>
+      <c r="L79" t="n">
         <v>0.579935</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>38.2686</v>
       </c>
-      <c r="L79" t="n">
+      <c r="N79" t="n">
         <v>0.577647</v>
       </c>
-      <c r="M79" t="n">
+      <c r="O79" t="n">
         <v>38.3278</v>
       </c>
     </row>
@@ -4856,11 +5646,15 @@
           <t>BT Consumidor</t>
         </is>
       </c>
-      <c r="D80" t="n">
-        <v>0.578628</v>
-      </c>
-      <c r="E80" t="n">
-        <v>38.3024</v>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
       </c>
       <c r="F80" t="n">
         <v>0.578628</v>
@@ -4875,15 +5669,21 @@
         <v>38.3024</v>
       </c>
       <c r="J80" t="n">
+        <v>0.578628</v>
+      </c>
+      <c r="K80" t="n">
+        <v>38.3024</v>
+      </c>
+      <c r="L80" t="n">
         <v>0.579935</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>38.2686</v>
       </c>
-      <c r="L80" t="n">
+      <c r="N80" t="n">
         <v>0.577647</v>
       </c>
-      <c r="M80" t="n">
+      <c r="O80" t="n">
         <v>38.3278</v>
       </c>
     </row>
@@ -4905,11 +5705,13 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E81" t="n">
-        <v>34.6977</v>
+          <t>5H</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -4927,18 +5729,26 @@
       <c r="I81" t="n">
         <v>34.6977</v>
       </c>
-      <c r="J81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>34.6977</v>
+      </c>
+      <c r="L81" t="n">
         <v>0.579886</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>38.2699</v>
       </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O81" t="n">
         <v>27.4505</v>
       </c>
     </row>
@@ -4960,11 +5770,13 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E82" t="n">
-        <v>29.8376</v>
+          <t>5H</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
@@ -4982,18 +5794,26 @@
       <c r="I82" t="n">
         <v>29.8376</v>
       </c>
-      <c r="J82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>29.8376</v>
+      </c>
+      <c r="L82" t="n">
         <v>0.579856</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>38.2706</v>
       </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O82" t="n">
         <v>14.565</v>
       </c>
     </row>
@@ -5015,11 +5835,13 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E83" t="n">
-        <v>23.6579</v>
+          <t>5H</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
@@ -5037,18 +5859,26 @@
       <c r="I83" t="n">
         <v>23.6579</v>
       </c>
-      <c r="J83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>23.6579</v>
+      </c>
+      <c r="L83" t="n">
         <v>1.43361</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>27.448</v>
       </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O83" t="n">
         <v>13.0765</v>
       </c>
     </row>
@@ -5070,11 +5900,13 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E84" t="n">
-        <v>0</v>
+          <t>5H</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -5092,18 +5924,26 @@
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
         <v>20.0229</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>13.0894</v>
       </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O84" t="n">
         <v>26.2179</v>
       </c>
     </row>
@@ -5125,11 +5965,13 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E85" t="n">
-        <v>35.6531</v>
+          <t>5H</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -5153,12 +5995,20 @@
         </is>
       </c>
       <c r="K85" t="n">
+        <v>35.6531</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>28.6306</v>
       </c>
-      <c r="L85" t="n">
+      <c r="N85" t="n">
         <v>0.577695</v>
       </c>
-      <c r="M85" t="n">
+      <c r="O85" t="n">
         <v>38.3265</v>
       </c>
     </row>
@@ -5180,11 +6030,13 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E86" t="n">
-        <v>36.9504</v>
+          <t>5H</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -5208,12 +6060,20 @@
         </is>
       </c>
       <c r="K86" t="n">
+        <v>36.9504</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>26.2226</v>
       </c>
-      <c r="L86" t="n">
+      <c r="N86" t="n">
         <v>0.577725</v>
       </c>
-      <c r="M86" t="n">
+      <c r="O86" t="n">
         <v>38.3258</v>
       </c>
     </row>
@@ -5235,11 +6095,13 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E87" t="n">
-        <v>12.0697</v>
+          <t>5H</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -5263,14 +6125,22 @@
         </is>
       </c>
       <c r="K87" t="n">
+        <v>12.0697</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>25.032</v>
       </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5290,11 +6160,15 @@
           <t>BT Consumidor</t>
         </is>
       </c>
-      <c r="D88" t="n">
-        <v>0.87823</v>
-      </c>
-      <c r="E88" t="n">
-        <v>32.6845</v>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
       </c>
       <c r="F88" t="n">
         <v>0.87823</v>
@@ -5308,20 +6182,26 @@
       <c r="I88" t="n">
         <v>32.6845</v>
       </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J88" t="n">
+        <v>0.87823</v>
       </c>
       <c r="K88" t="n">
+        <v>32.6845</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>32.0994</v>
       </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O88" t="n">
         <v>25.0309</v>
       </c>
     </row>
@@ -5343,11 +6223,13 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E89" t="n">
-        <v>23.5344</v>
+          <t>5H</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
@@ -5371,7 +6253,7 @@
         </is>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>23.5344</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -5379,6 +6261,14 @@
         </is>
       </c>
       <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O89" t="n">
         <v>32.1662</v>
       </c>
     </row>
@@ -5398,11 +6288,15 @@
           <t>BT Consumidor</t>
         </is>
       </c>
-      <c r="D90" t="n">
-        <v>0.478715</v>
-      </c>
-      <c r="E90" t="n">
-        <v>41.2855</v>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
       </c>
       <c r="F90" t="n">
         <v>0.478715</v>
@@ -5417,15 +6311,21 @@
         <v>41.2855</v>
       </c>
       <c r="J90" t="n">
+        <v>0.478715</v>
+      </c>
+      <c r="K90" t="n">
+        <v>41.2855</v>
+      </c>
+      <c r="L90" t="n">
         <v>0.477541</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>41.3261</v>
       </c>
-      <c r="L90" t="n">
+      <c r="N90" t="n">
         <v>0.477801</v>
       </c>
-      <c r="M90" t="n">
+      <c r="O90" t="n">
         <v>41.3171</v>
       </c>
     </row>
@@ -5445,11 +6345,15 @@
           <t>BT Consumidor</t>
         </is>
       </c>
-      <c r="D91" t="n">
-        <v>0.478715</v>
-      </c>
-      <c r="E91" t="n">
-        <v>41.2855</v>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
       </c>
       <c r="F91" t="n">
         <v>0.478715</v>
@@ -5464,15 +6368,21 @@
         <v>41.2855</v>
       </c>
       <c r="J91" t="n">
+        <v>0.478715</v>
+      </c>
+      <c r="K91" t="n">
+        <v>41.2855</v>
+      </c>
+      <c r="L91" t="n">
         <v>0.477541</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>41.3261</v>
       </c>
-      <c r="L91" t="n">
+      <c r="N91" t="n">
         <v>0.477801</v>
       </c>
-      <c r="M91" t="n">
+      <c r="O91" t="n">
         <v>41.3171</v>
       </c>
     </row>
@@ -5494,11 +6404,13 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E92" t="n">
-        <v>37.5905</v>
+          <t>5H</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -5516,16 +6428,24 @@
       <c r="I92" t="n">
         <v>37.5905</v>
       </c>
-      <c r="J92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>37.5905</v>
+      </c>
+      <c r="L92" t="n">
         <v>0.477498</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>41.3275</v>
       </c>
-      <c r="L92" t="n">
+      <c r="N92" t="n">
         <v>1.12111</v>
       </c>
-      <c r="M92" t="n">
+      <c r="O92" t="n">
         <v>29.9136</v>
       </c>
     </row>
@@ -5547,11 +6467,13 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E93" t="n">
-        <v>32.2708</v>
+          <t>5H</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -5569,18 +6491,26 @@
       <c r="I93" t="n">
         <v>32.2708</v>
       </c>
-      <c r="J93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>32.2708</v>
+      </c>
+      <c r="L93" t="n">
         <v>0.477471</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>41.3285</v>
       </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O93" t="n">
         <v>10.078</v>
       </c>
     </row>
@@ -5602,11 +6532,13 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E94" t="n">
-        <v>25.8919</v>
+          <t>5H</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -5624,18 +6556,26 @@
       <c r="I94" t="n">
         <v>25.8919</v>
       </c>
-      <c r="J94" t="n">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>25.8919</v>
+      </c>
+      <c r="L94" t="n">
         <v>1.12085</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>29.9161</v>
       </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O94" t="n">
         <v>31.0734</v>
       </c>
     </row>
@@ -5657,11 +6597,13 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E95" t="n">
-        <v>0</v>
+          <t>5H</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -5679,18 +6621,26 @@
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
         <v>12.9386</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>14.5028</v>
       </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O95" t="n">
         <v>28.4071</v>
       </c>
     </row>
@@ -5712,11 +6662,13 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E96" t="n">
-        <v>38.5101</v>
+          <t>5H</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -5740,12 +6692,20 @@
         </is>
       </c>
       <c r="K96" t="n">
+        <v>38.5101</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>31.0271</v>
       </c>
-      <c r="L96" t="n">
+      <c r="N96" t="n">
         <v>0.477844</v>
       </c>
-      <c r="M96" t="n">
+      <c r="O96" t="n">
         <v>41.3156</v>
       </c>
     </row>
@@ -5767,11 +6727,13 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E97" t="n">
-        <v>39.837</v>
+          <t>5H</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -5795,12 +6757,20 @@
         </is>
       </c>
       <c r="K97" t="n">
+        <v>39.837</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>28.397</v>
       </c>
-      <c r="L97" t="n">
+      <c r="N97" t="n">
         <v>0.477871</v>
       </c>
-      <c r="M97" t="n">
+      <c r="O97" t="n">
         <v>41.3146</v>
       </c>
     </row>
@@ -5822,11 +6792,13 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E98" t="n">
-        <v>13.3647</v>
+          <t>5H</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -5850,14 +6822,22 @@
         </is>
       </c>
       <c r="K98" t="n">
+        <v>13.3647</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>27.2381</v>
       </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5877,11 +6857,15 @@
           <t>BT Consumidor</t>
         </is>
       </c>
-      <c r="D99" t="n">
-        <v>0.708929</v>
-      </c>
-      <c r="E99" t="n">
-        <v>35.4166</v>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
       </c>
       <c r="F99" t="n">
         <v>0.708929</v>
@@ -5895,20 +6879,26 @@
       <c r="I99" t="n">
         <v>35.4166</v>
       </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="J99" t="n">
+        <v>0.708929</v>
       </c>
       <c r="K99" t="n">
+        <v>35.4166</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>34.8427</v>
       </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O99" t="n">
         <v>27.1908</v>
       </c>
     </row>
@@ -5930,11 +6920,13 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E100" t="n">
-        <v>25.6017</v>
+          <t>5H</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>5H</t>
+        </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -5958,7 +6950,7 @@
         </is>
       </c>
       <c r="K100" t="n">
-        <v>0</v>
+        <v>25.6017</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -5966,6 +6958,14 @@
         </is>
       </c>
       <c r="M100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O100" t="n">
         <v>34.885</v>
       </c>
     </row>
@@ -5987,11 +6987,13 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E101" t="n">
-        <v>14.9567</v>
+          <t>6K</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>6K</t>
+        </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -6015,14 +7017,22 @@
         </is>
       </c>
       <c r="K101" t="n">
+        <v>14.9567</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>14.9774</v>
       </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O101" t="n">
         <v>14.9739</v>
       </c>
     </row>
@@ -6044,11 +7054,13 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E102" t="n">
-        <v>14.95669</v>
+          <t>6K</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>6K</t>
+        </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -6072,14 +7084,22 @@
         </is>
       </c>
       <c r="K102" t="n">
+        <v>14.95669</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>14.97737</v>
       </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O102" t="n">
         <v>14.97388</v>
       </c>
     </row>
@@ -6101,11 +7121,13 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E103" t="n">
-        <v>14.95669</v>
+          <t>6K</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>6K</t>
+        </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
@@ -6129,14 +7151,22 @@
         </is>
       </c>
       <c r="K103" t="n">
+        <v>14.95669</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>14.97737</v>
       </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O103" t="n">
         <v>14.97388</v>
       </c>
     </row>
@@ -6158,11 +7188,13 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E104" t="n">
-        <v>14.95669</v>
+          <t>6K</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>6K</t>
+        </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -6186,14 +7218,22 @@
         </is>
       </c>
       <c r="K104" t="n">
+        <v>14.95669</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>14.97737</v>
       </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O104" t="n">
         <v>14.97388</v>
       </c>
     </row>
@@ -6215,11 +7255,13 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E105" t="n">
-        <v>14.95669</v>
+          <t>6K</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>6K</t>
+        </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
@@ -6243,14 +7285,22 @@
         </is>
       </c>
       <c r="K105" t="n">
+        <v>14.95669</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>14.97737</v>
       </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O105" t="n">
         <v>14.97388</v>
       </c>
     </row>
@@ -6272,11 +7322,13 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E106" t="n">
-        <v>14.95669</v>
+          <t>6K</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>6K</t>
+        </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
@@ -6300,14 +7352,22 @@
         </is>
       </c>
       <c r="K106" t="n">
+        <v>14.95669</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>14.97737</v>
       </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O106" t="n">
         <v>14.97388</v>
       </c>
     </row>
@@ -6329,11 +7389,13 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E107" t="n">
-        <v>14.95669</v>
+          <t>6K</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>6K</t>
+        </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -6357,14 +7419,22 @@
         </is>
       </c>
       <c r="K107" t="n">
+        <v>14.95669</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>14.97737</v>
       </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O107" t="n">
         <v>14.97388</v>
       </c>
     </row>
@@ -6386,11 +7456,13 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E108" t="n">
-        <v>14.95669</v>
+          <t>6K</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>6K</t>
+        </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
@@ -6414,14 +7486,22 @@
         </is>
       </c>
       <c r="K108" t="n">
+        <v>14.95669</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>14.97737</v>
       </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O108" t="n">
         <v>14.97388</v>
       </c>
     </row>
@@ -6443,11 +7523,13 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E109" t="n">
-        <v>0.01203627</v>
+          <t>6K</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>6K</t>
+        </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -6471,12 +7553,20 @@
         </is>
       </c>
       <c r="K109" t="n">
+        <v>0.01203627</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>14.97737</v>
       </c>
-      <c r="L109" t="n">
+      <c r="N109" t="n">
         <v>15.068</v>
       </c>
-      <c r="M109" t="n">
+      <c r="O109" t="n">
         <v>14.97388</v>
       </c>
     </row>
@@ -6498,11 +7588,13 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E110" t="n">
-        <v>14.95669</v>
+          <t>6K</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>6K</t>
+        </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -6526,14 +7618,22 @@
         </is>
       </c>
       <c r="K110" t="n">
+        <v>14.95669</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>14.97737</v>
       </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O110" t="n">
         <v>14.97388</v>
       </c>
     </row>
@@ -6555,11 +7655,13 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E111" t="n">
-        <v>14.95669</v>
+          <t>6K</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>6K</t>
+        </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -6583,14 +7685,22 @@
         </is>
       </c>
       <c r="K111" t="n">
+        <v>14.95669</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>14.97737</v>
       </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O111" t="n">
         <v>14.97388</v>
       </c>
     </row>
@@ -6612,11 +7722,13 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E112" t="n">
-        <v>19.08414</v>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -6640,14 +7752,22 @@
         </is>
       </c>
       <c r="K112" t="n">
+        <v>19.08414</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
         <v>19.11085</v>
       </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O112" t="n">
         <v>19.10561</v>
       </c>
     </row>
@@ -6669,11 +7789,13 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E113" t="n">
-        <v>19.08414</v>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
@@ -6697,14 +7819,22 @@
         </is>
       </c>
       <c r="K113" t="n">
+        <v>19.08414</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>19.11085</v>
       </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O113" t="n">
         <v>19.10561</v>
       </c>
     </row>
@@ -6726,11 +7856,13 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E114" t="n">
-        <v>19.08414</v>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -6754,14 +7886,22 @@
         </is>
       </c>
       <c r="K114" t="n">
+        <v>19.08414</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
         <v>19.11085</v>
       </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O114" t="n">
         <v>19.10561</v>
       </c>
     </row>
@@ -6783,11 +7923,13 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E115" t="n">
-        <v>19.08414</v>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -6811,14 +7953,22 @@
         </is>
       </c>
       <c r="K115" t="n">
+        <v>19.08414</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
         <v>19.11085</v>
       </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O115" t="n">
         <v>19.10561</v>
       </c>
     </row>
@@ -6840,11 +7990,13 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E116" t="n">
-        <v>19.08414</v>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -6868,14 +8020,22 @@
         </is>
       </c>
       <c r="K116" t="n">
+        <v>19.08414</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
         <v>19.11085</v>
       </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O116" t="n">
         <v>19.10561</v>
       </c>
     </row>
@@ -6897,11 +8057,13 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E117" t="n">
-        <v>19.08414</v>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -6925,14 +8087,22 @@
         </is>
       </c>
       <c r="K117" t="n">
+        <v>19.08414</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
         <v>19.11085</v>
       </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O117" t="n">
         <v>19.10561</v>
       </c>
     </row>
@@ -6954,11 +8124,13 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E118" t="n">
-        <v>19.08414</v>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
@@ -6982,14 +8154,22 @@
         </is>
       </c>
       <c r="K118" t="n">
+        <v>19.08414</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
         <v>19.11085</v>
       </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O118" t="n">
         <v>19.10561</v>
       </c>
     </row>
@@ -7011,11 +8191,13 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E119" t="n">
-        <v>19.08414</v>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -7039,14 +8221,22 @@
         </is>
       </c>
       <c r="K119" t="n">
+        <v>19.08414</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
         <v>19.11085</v>
       </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O119" t="n">
         <v>19.10561</v>
       </c>
     </row>
@@ -7068,11 +8258,13 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E120" t="n">
-        <v>19.08414</v>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -7096,14 +8288,22 @@
         </is>
       </c>
       <c r="K120" t="n">
+        <v>19.08414</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
         <v>19.11085</v>
       </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O120" t="n">
         <v>19.10561</v>
       </c>
     </row>
@@ -7125,11 +8325,13 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E121" t="n">
-        <v>19.08414</v>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -7153,14 +8355,22 @@
         </is>
       </c>
       <c r="K121" t="n">
+        <v>19.08414</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
         <v>19.11085</v>
       </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O121" t="n">
         <v>19.10561</v>
       </c>
     </row>
@@ -7182,11 +8392,13 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E122" t="n">
-        <v>19.08414</v>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -7210,14 +8422,22 @@
         </is>
       </c>
       <c r="K122" t="n">
+        <v>19.08414</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
         <v>19.11084</v>
       </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O122" t="n">
         <v>19.10561</v>
       </c>
     </row>
@@ -7239,11 +8459,13 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E123" t="n">
-        <v>21.01698</v>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
@@ -7267,14 +8489,22 @@
         </is>
       </c>
       <c r="K123" t="n">
+        <v>21.01698</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
         <v>21.04655</v>
       </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O123" t="n">
         <v>21.04038</v>
       </c>
     </row>
@@ -7296,11 +8526,13 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E124" t="n">
-        <v>21.01698</v>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -7324,14 +8556,22 @@
         </is>
       </c>
       <c r="K124" t="n">
+        <v>21.01698</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
         <v>21.04655</v>
       </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O124" t="n">
         <v>21.04038</v>
       </c>
     </row>
@@ -7353,11 +8593,13 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E125" t="n">
-        <v>21.01698</v>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -7381,14 +8623,22 @@
         </is>
       </c>
       <c r="K125" t="n">
+        <v>21.01698</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
         <v>21.04655</v>
       </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
+      <c r="N125" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O125" t="n">
         <v>21.04038</v>
       </c>
     </row>
@@ -7410,11 +8660,13 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E126" t="n">
-        <v>21.01698</v>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -7438,14 +8690,22 @@
         </is>
       </c>
       <c r="K126" t="n">
+        <v>21.01698</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
         <v>21.04655</v>
       </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O126" t="n">
         <v>21.04038</v>
       </c>
     </row>
@@ -7467,11 +8727,13 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E127" t="n">
-        <v>21.01698</v>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
@@ -7495,14 +8757,22 @@
         </is>
       </c>
       <c r="K127" t="n">
+        <v>21.01698</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
         <v>21.04655</v>
       </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O127" t="n">
         <v>21.04038</v>
       </c>
     </row>
@@ -7524,11 +8794,13 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E128" t="n">
-        <v>21.01698</v>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
@@ -7552,14 +8824,22 @@
         </is>
       </c>
       <c r="K128" t="n">
+        <v>21.01698</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
         <v>21.04655</v>
       </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
+      <c r="N128" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O128" t="n">
         <v>21.04038</v>
       </c>
     </row>
@@ -7581,11 +8861,13 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E129" t="n">
-        <v>21.01698</v>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -7609,14 +8891,22 @@
         </is>
       </c>
       <c r="K129" t="n">
+        <v>21.01698</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
         <v>21.04655</v>
       </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
+      <c r="N129" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O129" t="n">
         <v>21.04038</v>
       </c>
     </row>
@@ -7638,11 +8928,13 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E130" t="n">
-        <v>21.01698</v>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -7666,14 +8958,22 @@
         </is>
       </c>
       <c r="K130" t="n">
+        <v>21.01698</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
         <v>21.04655</v>
       </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
+      <c r="N130" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O130" t="n">
         <v>21.04038</v>
       </c>
     </row>
@@ -7695,11 +8995,13 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E131" t="n">
-        <v>21.01698</v>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -7723,14 +9025,22 @@
         </is>
       </c>
       <c r="K131" t="n">
+        <v>21.01698</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
         <v>21.04655</v>
       </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
+      <c r="N131" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O131" t="n">
         <v>21.04038</v>
       </c>
     </row>
@@ -7752,11 +9062,13 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E132" t="n">
-        <v>21.01698</v>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -7780,14 +9092,22 @@
         </is>
       </c>
       <c r="K132" t="n">
+        <v>21.01698</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
         <v>21.04655</v>
       </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O132" t="n">
         <v>21.04038</v>
       </c>
     </row>
@@ -7809,11 +9129,13 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E133" t="n">
-        <v>21.01698</v>
+          <t>10K</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>10K</t>
+        </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -7837,14 +9159,22 @@
         </is>
       </c>
       <c r="K133" t="n">
+        <v>21.01698</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
         <v>21.04655</v>
       </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O133" t="n">
         <v>21.04038</v>
       </c>
     </row>
@@ -7866,11 +9196,13 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E134" t="n">
-        <v>22.86968</v>
+          <t>12K</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>12K</t>
+        </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -7894,14 +9226,22 @@
         </is>
       </c>
       <c r="K134" t="n">
+        <v>22.86968</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
         <v>22.90203</v>
       </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O134" t="n">
         <v>22.89489</v>
       </c>
     </row>
@@ -7923,11 +9263,13 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E135" t="n">
-        <v>22.86968</v>
+          <t>12K</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>12K</t>
+        </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
@@ -7951,14 +9293,22 @@
         </is>
       </c>
       <c r="K135" t="n">
+        <v>22.86968</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
         <v>22.90203</v>
       </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
+      <c r="N135" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O135" t="n">
         <v>22.89489</v>
       </c>
     </row>
@@ -7980,11 +9330,13 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E136" t="n">
-        <v>22.86968</v>
+          <t>12K</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>12K</t>
+        </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -8008,14 +9360,22 @@
         </is>
       </c>
       <c r="K136" t="n">
+        <v>22.86968</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
         <v>22.90203</v>
       </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
+      <c r="N136" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O136" t="n">
         <v>22.89489</v>
       </c>
     </row>
@@ -8037,11 +9397,13 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E137" t="n">
-        <v>22.86968</v>
+          <t>12K</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>12K</t>
+        </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
@@ -8065,14 +9427,22 @@
         </is>
       </c>
       <c r="K137" t="n">
+        <v>22.86968</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
         <v>22.90203</v>
       </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
+      <c r="N137" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O137" t="n">
         <v>22.89489</v>
       </c>
     </row>
@@ -8094,11 +9464,13 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E138" t="n">
-        <v>22.86968</v>
+          <t>12K</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>12K</t>
+        </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -8122,14 +9494,22 @@
         </is>
       </c>
       <c r="K138" t="n">
+        <v>22.86968</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
         <v>22.90203</v>
       </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O138" t="n">
         <v>22.89489</v>
       </c>
     </row>
@@ -8151,11 +9531,13 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E139" t="n">
-        <v>22.86968</v>
+          <t>12K</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>12K</t>
+        </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -8179,14 +9561,22 @@
         </is>
       </c>
       <c r="K139" t="n">
+        <v>22.86968</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
         <v>22.90203</v>
       </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O139" t="n">
         <v>22.89489</v>
       </c>
     </row>
@@ -8208,11 +9598,13 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E140" t="n">
-        <v>22.86968</v>
+          <t>12K</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>12K</t>
+        </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
@@ -8236,14 +9628,22 @@
         </is>
       </c>
       <c r="K140" t="n">
+        <v>22.86968</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
         <v>22.90203</v>
       </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
+      <c r="N140" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O140" t="n">
         <v>22.89489</v>
       </c>
     </row>
@@ -8265,11 +9665,13 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E141" t="n">
-        <v>22.86968</v>
+          <t>12K</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>12K</t>
+        </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
@@ -8293,14 +9695,22 @@
         </is>
       </c>
       <c r="K141" t="n">
+        <v>22.86968</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
         <v>22.90203</v>
       </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
+      <c r="N141" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O141" t="n">
         <v>22.89489</v>
       </c>
     </row>
@@ -8322,11 +9732,13 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E142" t="n">
-        <v>22.86968</v>
+          <t>12K</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>12K</t>
+        </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
@@ -8350,14 +9762,22 @@
         </is>
       </c>
       <c r="K142" t="n">
+        <v>22.86968</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
         <v>22.90203</v>
       </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O142" t="n">
         <v>22.89488</v>
       </c>
     </row>
@@ -8379,11 +9799,13 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E143" t="n">
-        <v>22.86968</v>
+          <t>12K</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>12K</t>
+        </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
@@ -8407,14 +9829,22 @@
         </is>
       </c>
       <c r="K143" t="n">
+        <v>22.86968</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
         <v>22.90203</v>
       </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
+      <c r="N143" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O143" t="n">
         <v>22.89489</v>
       </c>
     </row>
@@ -8436,11 +9866,13 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E144" t="n">
-        <v>22.86968</v>
+          <t>12K</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>12K</t>
+        </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -8464,14 +9896,22 @@
         </is>
       </c>
       <c r="K144" t="n">
+        <v>22.86968</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
         <v>22.90203</v>
       </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O144" t="n">
         <v>22.89489</v>
       </c>
     </row>
@@ -8493,11 +9933,13 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E145" t="n">
-        <v>26.35354</v>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
@@ -8521,14 +9963,22 @@
         </is>
       </c>
       <c r="K145" t="n">
+        <v>26.35354</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
         <v>26.39117</v>
       </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O145" t="n">
         <v>26.38202</v>
       </c>
     </row>
@@ -8550,11 +10000,13 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E146" t="n">
-        <v>26.35354</v>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
@@ -8578,14 +10030,22 @@
         </is>
       </c>
       <c r="K146" t="n">
+        <v>26.35354</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
         <v>26.39117</v>
       </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O146" t="n">
         <v>26.38202</v>
       </c>
     </row>
@@ -8607,11 +10067,13 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E147" t="n">
-        <v>26.35354</v>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
@@ -8635,14 +10097,22 @@
         </is>
       </c>
       <c r="K147" t="n">
+        <v>26.35354</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
         <v>26.39117</v>
       </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
+      <c r="N147" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O147" t="n">
         <v>26.38202</v>
       </c>
     </row>
@@ -8664,11 +10134,13 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E148" t="n">
-        <v>26.35354</v>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
@@ -8692,14 +10164,22 @@
         </is>
       </c>
       <c r="K148" t="n">
+        <v>26.35354</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
         <v>26.39117</v>
       </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O148" t="n">
         <v>26.38202</v>
       </c>
     </row>
@@ -8721,11 +10201,13 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E149" t="n">
-        <v>26.35354</v>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
@@ -8749,14 +10231,22 @@
         </is>
       </c>
       <c r="K149" t="n">
+        <v>26.35354</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
         <v>26.39117</v>
       </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
+      <c r="N149" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O149" t="n">
         <v>26.38202</v>
       </c>
     </row>
@@ -8778,11 +10268,13 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E150" t="n">
-        <v>26.35354</v>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -8806,14 +10298,22 @@
         </is>
       </c>
       <c r="K150" t="n">
+        <v>26.35354</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
         <v>26.39117</v>
       </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
+      <c r="N150" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O150" t="n">
         <v>26.38202</v>
       </c>
     </row>
@@ -8835,11 +10335,13 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E151" t="n">
-        <v>26.35354</v>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -8863,14 +10365,22 @@
         </is>
       </c>
       <c r="K151" t="n">
+        <v>26.35354</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
         <v>26.39117</v>
       </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O151" t="n">
         <v>26.38202</v>
       </c>
     </row>
@@ -8892,11 +10402,13 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E152" t="n">
-        <v>26.35354</v>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -8920,14 +10432,22 @@
         </is>
       </c>
       <c r="K152" t="n">
+        <v>26.35354</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
         <v>26.39117</v>
       </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
+      <c r="N152" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O152" t="n">
         <v>26.38202</v>
       </c>
     </row>
@@ -8949,11 +10469,13 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E153" t="n">
-        <v>26.35354</v>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
@@ -8977,14 +10499,22 @@
         </is>
       </c>
       <c r="K153" t="n">
+        <v>26.35354</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
         <v>26.39117</v>
       </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O153" t="n">
         <v>26.38202</v>
       </c>
     </row>
@@ -9006,11 +10536,13 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E154" t="n">
-        <v>26.35354</v>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -9034,14 +10566,22 @@
         </is>
       </c>
       <c r="K154" t="n">
+        <v>26.35354</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
         <v>26.39117</v>
       </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O154" t="n">
         <v>26.38202</v>
       </c>
     </row>
@@ -9063,11 +10603,13 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="E155" t="n">
-        <v>26.35354</v>
+          <t>15K</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
@@ -9091,14 +10633,22 @@
         </is>
       </c>
       <c r="K155" t="n">
+        <v>26.35354</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
         <v>26.39117</v>
       </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="O155" t="n">
         <v>26.38202</v>
       </c>
     </row>
